--- a/src/databases/Customers.xlsx
+++ b/src/databases/Customers.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C529EE7B-4E8B-42F4-9F32-C59FE8B11BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:801_{C529EE7B-4E8B-42F4-9F32-C59FE8B11BFC}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{4B719207-64FC-46EC-ABC9-90F8FEDB04C5}"/>
+    <workbookView windowHeight="18120" windowWidth="33120" xWindow="-103" xr2:uid="{4B719207-64FC-46EC-ABC9-90F8FEDB04C5}" yWindow="-103"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>Email</t>
   </si>
@@ -132,12 +132,22 @@
   </si>
   <si>
     <t>123456794</t>
+  </si>
+  <si>
+    <t>Mark leeee</t>
+  </si>
+  <si>
+    <t>mark@gmail.com</t>
+  </si>
+  <si>
+    <t>05/23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -171,17 +181,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -198,10 +208,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -236,7 +246,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -288,7 +298,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -399,21 +409,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -430,7 +440,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -482,15 +492,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C07D6EB-AC0C-4DB6-A8EF-535A3208A5B4}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C07D6EB-AC0C-4DB6-A8EF-535A3208A5B4}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -498,12 +508,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.3046875" customWidth="1"/>
-    <col min="2" max="2" width="23.4609375" customWidth="1"/>
-    <col min="3" max="3" width="21.765625" customWidth="1"/>
-    <col min="4" max="4" width="20.61328125" customWidth="1"/>
-    <col min="5" max="5" width="18.4609375" customWidth="1"/>
-    <col min="6" max="6" width="16.23046875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.3046875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="23.4609375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="21.765625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="20.61328125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.4609375" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="16.23046875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
@@ -526,7 +536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.4">
+    <row customFormat="1" r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -546,7 +556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.4">
+    <row customFormat="1" r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -566,7 +576,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.4">
+    <row customFormat="1" r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -586,7 +596,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.4">
+    <row customFormat="1" r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -646,8 +656,28 @@
         <v>31</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/databases/Customers.xlsx
+++ b/src/databases/Customers.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>Email</t>
   </si>
@@ -141,6 +141,33 @@
   </si>
   <si>
     <t>05/23</t>
+  </si>
+  <si>
+    <t>sam anderson</t>
+  </si>
+  <si>
+    <t>sam_anderson@gmail.com</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>John traversa</t>
+  </si>
+  <si>
+    <t>hogn@gmail.com</t>
+  </si>
+  <si>
+    <t>aaaaaaaaa</t>
+  </si>
+  <si>
+    <t>9876543219876543</t>
+  </si>
+  <si>
+    <t>05/22</t>
+  </si>
+  <si>
+    <t>999</t>
   </si>
 </sst>
 </file>
@@ -500,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C07D6EB-AC0C-4DB6-A8EF-535A3208A5B4}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -508,12 +535,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.3046875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="23.4609375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="21.765625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="20.61328125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="18.4609375" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="16.23046875" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="18.3046875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.4609375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.765625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.61328125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.4609375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.23046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
@@ -676,6 +703,46 @@
         <v>16</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/src/databases/Customers.xlsx
+++ b/src/databases/Customers.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t>Email</t>
   </si>
@@ -168,6 +168,15 @@
   </si>
   <si>
     <t>999</t>
+  </si>
+  <si>
+    <t>John ramsy</t>
+  </si>
+  <si>
+    <t>ghhjghj@gmail.com</t>
+  </si>
+  <si>
+    <t>998</t>
   </si>
 </sst>
 </file>
@@ -527,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C07D6EB-AC0C-4DB6-A8EF-535A3208A5B4}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -743,6 +752,26 @@
         <v>48</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/src/databases/Customers.xlsx
+++ b/src/databases/Customers.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr documentId="13_ncr:801_{C529EE7B-4E8B-42F4-9F32-C59FE8B11BFC}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:801_{779E2525-AA55-4F52-B743-605F431A81AE}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
     <workbookView windowHeight="18120" windowWidth="33120" xWindow="-103" xr2:uid="{4B719207-64FC-46EC-ABC9-90F8FEDB04C5}" yWindow="-103"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
   <si>
     <t>Email</t>
   </si>
@@ -177,6 +177,24 @@
   </si>
   <si>
     <t>998</t>
+  </si>
+  <si>
+    <t>jam smihjg</t>
+  </si>
+  <si>
+    <t>hghjghj@ghjghjgj.com</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>jamshid molaei</t>
+  </si>
+  <si>
+    <t>jamshid@hamshid@gmail.com</t>
+  </si>
+  <si>
+    <t>02/22</t>
   </si>
 </sst>
 </file>
@@ -184,7 +202,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +212,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -216,14 +242,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -536,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C07D6EB-AC0C-4DB6-A8EF-535A3208A5B4}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -692,7 +721,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -712,7 +741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -732,7 +761,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -752,7 +781,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -772,8 +801,51 @@
         <v>51</v>
       </c>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B12" xr:uid="{4F3B3468-46BA-4244-A8A4-828AF652079A}"/>
+  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>